--- a/INTLINE/data/134/DEUSTATIS/old/Foreign trade - SITC2 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Foreign trade - SITC2 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="40">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -124,13 +124,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:11:35</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:48:13</t>
   </si>
 </sst>
 </file>
@@ -4939,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="D338" t="n" s="10">
-        <v>1226410.0</v>
+        <v>1225028.0</v>
       </c>
     </row>
     <row r="339">
@@ -4950,7 +4953,7 @@
         <v>10</v>
       </c>
       <c r="D339" t="n" s="10">
-        <v>3919476.0</v>
+        <v>3919927.0</v>
       </c>
     </row>
     <row r="340">
@@ -4964,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="D340" t="n" s="10">
-        <v>1435677.0</v>
+        <v>1435301.0</v>
       </c>
     </row>
     <row r="341">
@@ -4975,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="D341" t="n" s="10">
-        <v>4469562.0</v>
+        <v>4470844.0</v>
       </c>
     </row>
     <row r="342">
@@ -4989,7 +4992,7 @@
         <v>10</v>
       </c>
       <c r="D342" t="n" s="10">
-        <v>1529098.0</v>
+        <v>1539135.0</v>
       </c>
     </row>
     <row r="343">
@@ -5000,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="D343" t="n" s="10">
-        <v>4338392.0</v>
+        <v>4357701.0</v>
       </c>
     </row>
     <row r="344">
@@ -5014,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>1600928.0</v>
+        <v>1613514.0</v>
       </c>
     </row>
     <row r="345">
@@ -5025,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>4789761.0</v>
+        <v>4802550.0</v>
       </c>
     </row>
     <row r="346">
@@ -5039,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="D346" t="n" s="10">
-        <v>1673641.0</v>
+        <v>1691532.0</v>
       </c>
     </row>
     <row r="347">
@@ -5050,7 +5053,7 @@
         <v>10</v>
       </c>
       <c r="D347" t="n" s="10">
-        <v>4886938.0</v>
+        <v>4902490.0</v>
       </c>
     </row>
     <row r="348">
@@ -5064,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="D348" t="n" s="10">
-        <v>1656319.0</v>
+        <v>1720797.0</v>
       </c>
     </row>
     <row r="349">
@@ -5075,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="D349" t="n" s="10">
-        <v>5158922.0</v>
+        <v>5170658.0</v>
       </c>
     </row>
     <row r="350">
@@ -5089,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="D350" t="n" s="10">
-        <v>1781737.0</v>
+        <v>1782836.0</v>
       </c>
     </row>
     <row r="351">
@@ -5100,7 +5103,7 @@
         <v>10</v>
       </c>
       <c r="D351" t="n" s="10">
-        <v>5383571.0</v>
+        <v>5387927.0</v>
       </c>
     </row>
     <row r="352">
@@ -5113,8 +5116,8 @@
       <c r="C352" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D352" t="s" s="10">
-        <v>36</v>
+      <c r="D352" t="n" s="10">
+        <v>1805796.0</v>
       </c>
     </row>
     <row r="353">
@@ -5124,8 +5127,8 @@
       <c r="C353" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D353" t="s" s="10">
-        <v>36</v>
+      <c r="D353" t="n" s="10">
+        <v>5963172.0</v>
       </c>
     </row>
     <row r="354">
@@ -5138,8 +5141,8 @@
       <c r="C354" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D354" t="s" s="10">
-        <v>36</v>
+      <c r="D354" t="n" s="10">
+        <v>1724419.0</v>
       </c>
     </row>
     <row r="355">
@@ -5149,18 +5152,323 @@
       <c r="C355" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="D355" t="s" s="10">
+      <c r="D355" t="n" s="10">
+        <v>5591988.0</v>
+      </c>
+    </row>
+    <row r="356" ht="50.6" customHeight="true">
+      <c r="A356" t="s" s="14">
         <v>36</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="s" s="11">
+    <row r="357">
+      <c r="A357" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="B357" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D357" t="n" s="10">
+        <v>1804659.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D358" t="n" s="10">
+        <v>5956812.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B359" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C359" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D359" t="s" s="10">
         <v>37</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="s" s="12">
+    <row r="360">
+      <c r="B360" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D360" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B361" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C361" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D361" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C362" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D362" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B363" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D363" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C364" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D364" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="B365" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C365" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D365" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C366" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D366" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B367" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D367" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C368" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D368" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B369" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D370" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B371" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D371" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C372" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D372" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="B373" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C373" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D373" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C374" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D374" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B375" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C375" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D375" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C376" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D376" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B377" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C377" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D377" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C378" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D378" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B379" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C379" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C380" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="11">
         <v>38</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="12">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5183,11 +5491,12 @@
     <mergeCell ref="A281:D281"/>
     <mergeCell ref="A306:D306"/>
     <mergeCell ref="A331:D331"/>
+    <mergeCell ref="A356:D356"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:11:39&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:48:17&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>